--- a/textbook/public/sampleChart.xlsx
+++ b/textbook/public/sampleChart.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,10 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -68,6 +64,9 @@
         <rich>
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:t>Sample BarChart</a:t>
             </a:r>
@@ -82,9 +81,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <v>First series</v>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
@@ -92,7 +88,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>Sheet!$A$1:$A$10</f>
+              <f>'Sheet'!$A$1:$A$10</f>
             </numRef>
           </val>
         </ser>
@@ -111,6 +107,9 @@
             <rich>
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:t>Rank</a:t>
                 </a:r>
@@ -135,6 +134,9 @@
             <rich>
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:t>Value</a:t>
                 </a:r>
@@ -147,9 +149,6 @@
         <crossAx val="10"/>
       </valAx>
     </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -480,58 +479,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3">
       <c r="A3" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4">
       <c r="A4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5">
       <c r="A5" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6">
       <c r="A6" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7">
       <c r="A7" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8">
       <c r="A8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9">
       <c r="A9" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10">
       <c r="A10" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>